--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H2">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I2">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J2">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.142069</v>
+        <v>0.2956425</v>
       </c>
       <c r="N2">
-        <v>0.426207</v>
+        <v>0.5912849999999999</v>
       </c>
       <c r="O2">
-        <v>0.1364551007020182</v>
+        <v>0.179122830242808</v>
       </c>
       <c r="P2">
-        <v>0.1806547461359297</v>
+        <v>0.1717318139150154</v>
       </c>
       <c r="Q2">
-        <v>0.7877086029155</v>
+        <v>1.05368760855</v>
       </c>
       <c r="R2">
-        <v>4.726251617493</v>
+        <v>4.2147504342</v>
       </c>
       <c r="S2">
-        <v>0.06549190333928405</v>
+        <v>0.108159363555406</v>
       </c>
       <c r="T2">
-        <v>0.07368232064672744</v>
+        <v>0.09977869790713537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H3">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I3">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J3">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.7641880000000001</v>
+        <v>0.142069</v>
       </c>
       <c r="N3">
-        <v>1.528376</v>
+        <v>0.426207</v>
       </c>
       <c r="O3">
-        <v>0.7339908811582677</v>
+        <v>0.08607626227543567</v>
       </c>
       <c r="P3">
-        <v>0.6478269439034264</v>
+        <v>0.1237868391947656</v>
       </c>
       <c r="Q3">
-        <v>4.237078193306001</v>
+        <v>0.50634244014</v>
       </c>
       <c r="R3">
-        <v>16.948312773224</v>
+        <v>3.03805464084</v>
       </c>
       <c r="S3">
-        <v>0.352280417466448</v>
+        <v>0.05197524923159887</v>
       </c>
       <c r="T3">
-        <v>0.2642244038712708</v>
+        <v>0.07192196571688179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H4">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I4">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J4">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134884</v>
+        <v>1.21279</v>
       </c>
       <c r="N4">
-        <v>0.404652</v>
+        <v>2.42558</v>
       </c>
       <c r="O4">
-        <v>0.129554018139714</v>
+        <v>0.7348009074817563</v>
       </c>
       <c r="P4">
-        <v>0.171518309960644</v>
+        <v>0.704481346890219</v>
       </c>
       <c r="Q4">
-        <v>0.7478710147580001</v>
+        <v>4.3224563274</v>
       </c>
       <c r="R4">
-        <v>4.487226088548001</v>
+        <v>17.2898253096</v>
       </c>
       <c r="S4">
-        <v>0.06217971471620121</v>
+        <v>0.4436932935094271</v>
       </c>
       <c r="T4">
-        <v>0.06995590972072151</v>
+        <v>0.409313975611743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,40 +732,40 @@
         <v>0.450645</v>
       </c>
       <c r="I5">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J5">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.142069</v>
+        <v>0.2956425</v>
       </c>
       <c r="N5">
-        <v>0.426207</v>
+        <v>0.5912849999999999</v>
       </c>
       <c r="O5">
-        <v>0.1364551007020182</v>
+        <v>0.179122830242808</v>
       </c>
       <c r="P5">
-        <v>0.1806547461359297</v>
+        <v>0.1717318139150154</v>
       </c>
       <c r="Q5">
-        <v>0.021340894835</v>
+        <v>0.04440993813749999</v>
       </c>
       <c r="R5">
-        <v>0.192068053515</v>
+        <v>0.266459628825</v>
       </c>
       <c r="S5">
-        <v>0.001774331036292588</v>
+        <v>0.004558609786725057</v>
       </c>
       <c r="T5">
-        <v>0.002994343308491022</v>
+        <v>0.006308082821046927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,40 +794,40 @@
         <v>0.450645</v>
       </c>
       <c r="I6">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J6">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.7641880000000001</v>
+        <v>0.142069</v>
       </c>
       <c r="N6">
-        <v>1.528376</v>
+        <v>0.426207</v>
       </c>
       <c r="O6">
-        <v>0.7339908811582677</v>
+        <v>0.08607626227543567</v>
       </c>
       <c r="P6">
-        <v>0.6478269439034264</v>
+        <v>0.1237868391947656</v>
       </c>
       <c r="Q6">
-        <v>0.11479250042</v>
+        <v>0.021340894835</v>
       </c>
       <c r="R6">
-        <v>0.68875500252</v>
+        <v>0.192068053515</v>
       </c>
       <c r="S6">
-        <v>0.009544112269125287</v>
+        <v>0.002190609042306983</v>
       </c>
       <c r="T6">
-        <v>0.01073769893140722</v>
+        <v>0.004546959680881381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,40 +856,40 @@
         <v>0.450645</v>
       </c>
       <c r="I7">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J7">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.134884</v>
+        <v>1.21279</v>
       </c>
       <c r="N7">
-        <v>0.404652</v>
+        <v>2.42558</v>
       </c>
       <c r="O7">
-        <v>0.129554018139714</v>
+        <v>0.7348009074817563</v>
       </c>
       <c r="P7">
-        <v>0.171518309960644</v>
+        <v>0.704481346890219</v>
       </c>
       <c r="Q7">
-        <v>0.02026160006</v>
+        <v>0.18217924985</v>
       </c>
       <c r="R7">
-        <v>0.18235440054</v>
+        <v>1.0930754991</v>
       </c>
       <c r="S7">
-        <v>0.001684595988563933</v>
+        <v>0.01870041135236741</v>
       </c>
       <c r="T7">
-        <v>0.002842907339549818</v>
+        <v>0.0258771312126555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H8">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I8">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J8">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.142069</v>
+        <v>0.2956425</v>
       </c>
       <c r="N8">
-        <v>0.426207</v>
+        <v>0.5912849999999999</v>
       </c>
       <c r="O8">
-        <v>0.1364551007020182</v>
+        <v>0.179122830242808</v>
       </c>
       <c r="P8">
-        <v>0.1806547461359297</v>
+        <v>0.1717318139150154</v>
       </c>
       <c r="Q8">
-        <v>0.03220140689633334</v>
+        <v>0.554291253975</v>
       </c>
       <c r="R8">
-        <v>0.289812662067</v>
+        <v>2.2171650159</v>
       </c>
       <c r="S8">
-        <v>0.002677298965680903</v>
+        <v>0.05689711900167898</v>
       </c>
       <c r="T8">
-        <v>0.004518182953879514</v>
+        <v>0.05248847868586693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.87487</v>
+      </c>
+      <c r="H9">
+        <v>3.74974</v>
+      </c>
+      <c r="I9">
+        <v>0.3176430325746456</v>
+      </c>
+      <c r="J9">
+        <v>0.3056421375240455</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.2266603333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.6799810000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.0196203656140888</v>
-      </c>
-      <c r="J9">
-        <v>0.025010042916226</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.7641880000000001</v>
+        <v>0.142069</v>
       </c>
       <c r="N9">
-        <v>1.528376</v>
+        <v>0.426207</v>
       </c>
       <c r="O9">
-        <v>0.7339908811582677</v>
+        <v>0.08607626227543567</v>
       </c>
       <c r="P9">
-        <v>0.6478269439034264</v>
+        <v>0.1237868391947656</v>
       </c>
       <c r="Q9">
-        <v>0.1732111068093334</v>
+        <v>0.26636090603</v>
       </c>
       <c r="R9">
-        <v>1.039266640856</v>
+        <v>1.59816543618</v>
       </c>
       <c r="S9">
-        <v>0.01440116944573241</v>
+        <v>0.02734152498185995</v>
       </c>
       <c r="T9">
-        <v>0.01620217966931223</v>
+        <v>0.03783447412883346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H10">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I10">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J10">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.134884</v>
+        <v>1.21279</v>
       </c>
       <c r="N10">
-        <v>0.404652</v>
+        <v>2.42558</v>
       </c>
       <c r="O10">
-        <v>0.129554018139714</v>
+        <v>0.7348009074817563</v>
       </c>
       <c r="P10">
-        <v>0.171518309960644</v>
+        <v>0.704481346890219</v>
       </c>
       <c r="Q10">
-        <v>0.03057285240133334</v>
+        <v>2.2738235873</v>
       </c>
       <c r="R10">
-        <v>0.2751556716120001</v>
+        <v>9.0952943492</v>
       </c>
       <c r="S10">
-        <v>0.002541897202675481</v>
+        <v>0.2334043885911067</v>
       </c>
       <c r="T10">
-        <v>0.004289680293034261</v>
+        <v>0.2153191847093451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H11">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I11">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J11">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.142069</v>
+        <v>0.2956425</v>
       </c>
       <c r="N11">
-        <v>0.426207</v>
+        <v>0.5912849999999999</v>
       </c>
       <c r="O11">
-        <v>0.1364551007020182</v>
+        <v>0.179122830242808</v>
       </c>
       <c r="P11">
-        <v>0.1806547461359297</v>
+        <v>0.1717318139150154</v>
       </c>
       <c r="Q11">
-        <v>0.27334501807</v>
+        <v>0.07697151034999999</v>
       </c>
       <c r="R11">
-        <v>1.64007010842</v>
+        <v>0.4618290621</v>
       </c>
       <c r="S11">
-        <v>0.02272653292785693</v>
+        <v>0.007901003583795389</v>
       </c>
       <c r="T11">
-        <v>0.02556871309272701</v>
+        <v>0.01093319834505412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H12">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I12">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J12">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.7641880000000001</v>
+        <v>0.142069</v>
       </c>
       <c r="N12">
-        <v>1.528376</v>
+        <v>0.426207</v>
       </c>
       <c r="O12">
-        <v>0.7339908811582677</v>
+        <v>0.08607626227543567</v>
       </c>
       <c r="P12">
-        <v>0.6478269439034264</v>
+        <v>0.1237868391947656</v>
       </c>
       <c r="Q12">
-        <v>1.47032063764</v>
+        <v>0.03698813771333333</v>
       </c>
       <c r="R12">
-        <v>5.881282550560001</v>
+        <v>0.33289323942</v>
       </c>
       <c r="S12">
-        <v>0.1222458364954574</v>
+        <v>0.003796773732282155</v>
       </c>
       <c r="T12">
-        <v>0.09168926705054056</v>
+        <v>0.007880811566419715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1207,61 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H13">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I13">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J13">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.134884</v>
+        <v>1.21279</v>
       </c>
       <c r="N13">
-        <v>0.404652</v>
+        <v>2.42558</v>
       </c>
       <c r="O13">
-        <v>0.129554018139714</v>
+        <v>0.7348009074817563</v>
       </c>
       <c r="P13">
-        <v>0.171518309960644</v>
+        <v>0.704481346890219</v>
       </c>
       <c r="Q13">
-        <v>0.25952086252</v>
+        <v>0.3157539191333333</v>
       </c>
       <c r="R13">
-        <v>1.55712517512</v>
+        <v>1.8945235148</v>
       </c>
       <c r="S13">
-        <v>0.02157716086859944</v>
+        <v>0.03241163951864569</v>
       </c>
       <c r="T13">
-        <v>0.0242756005659179</v>
+        <v>0.04485036360096463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1269,61 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H14">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I14">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J14">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.142069</v>
+        <v>0.2956425</v>
       </c>
       <c r="N14">
-        <v>0.426207</v>
+        <v>0.5912849999999999</v>
       </c>
       <c r="O14">
-        <v>0.1364551007020182</v>
+        <v>0.179122830242808</v>
       </c>
       <c r="P14">
-        <v>0.1806547461359297</v>
+        <v>0.1717318139150154</v>
       </c>
       <c r="Q14">
-        <v>0.4579192159730001</v>
+        <v>0.0156527921625</v>
       </c>
       <c r="R14">
-        <v>4.121272943757001</v>
+        <v>0.09391675297499999</v>
       </c>
       <c r="S14">
-        <v>0.03807245587861324</v>
+        <v>0.001606734315202597</v>
       </c>
       <c r="T14">
-        <v>0.06425069570791538</v>
+        <v>0.002223356155912056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1331,61 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H15">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I15">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J15">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.7641880000000001</v>
+        <v>0.142069</v>
       </c>
       <c r="N15">
-        <v>1.528376</v>
+        <v>0.426207</v>
       </c>
       <c r="O15">
-        <v>0.7339908811582677</v>
+        <v>0.08607626227543567</v>
       </c>
       <c r="P15">
-        <v>0.6478269439034264</v>
+        <v>0.1237868391947656</v>
       </c>
       <c r="Q15">
-        <v>2.463143752796001</v>
+        <v>0.007521843205</v>
       </c>
       <c r="R15">
-        <v>14.77886251677601</v>
+        <v>0.067696588845</v>
       </c>
       <c r="S15">
-        <v>0.2047914317195567</v>
+        <v>0.000772105287387699</v>
       </c>
       <c r="T15">
-        <v>0.2304026477821361</v>
+        <v>0.001602628101749258</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1393,61 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H16">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I16">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J16">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.134884</v>
+        <v>1.21279</v>
       </c>
       <c r="N16">
-        <v>0.404652</v>
+        <v>2.42558</v>
       </c>
       <c r="O16">
-        <v>0.129554018139714</v>
+        <v>0.7348009074817563</v>
       </c>
       <c r="P16">
-        <v>0.171518309960644</v>
+        <v>0.704481346890219</v>
       </c>
       <c r="Q16">
-        <v>0.4347604018280001</v>
+        <v>0.06421116655</v>
       </c>
       <c r="R16">
-        <v>3.912843616452001</v>
+        <v>0.3852669993</v>
       </c>
       <c r="S16">
-        <v>0.03614697885345056</v>
+        <v>0.006591174510209317</v>
       </c>
       <c r="T16">
-        <v>0.06100127994049692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H17">
-        <v>1.450882</v>
-      </c>
-      <c r="I17">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J17">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.142069</v>
-      </c>
-      <c r="N17">
-        <v>0.426207</v>
-      </c>
-      <c r="O17">
-        <v>0.1364551007020182</v>
-      </c>
-      <c r="P17">
-        <v>0.1806547461359297</v>
-      </c>
-      <c r="Q17">
-        <v>0.06870845161933334</v>
-      </c>
-      <c r="R17">
-        <v>0.618376064574</v>
-      </c>
-      <c r="S17">
-        <v>0.005712578554290546</v>
-      </c>
-      <c r="T17">
-        <v>0.009640490426189287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H18">
-        <v>1.450882</v>
-      </c>
-      <c r="I18">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J18">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.7641880000000001</v>
-      </c>
-      <c r="N18">
-        <v>1.528376</v>
-      </c>
-      <c r="O18">
-        <v>0.7339908811582677</v>
-      </c>
-      <c r="P18">
-        <v>0.6478269439034264</v>
-      </c>
-      <c r="Q18">
-        <v>0.3695822046053334</v>
-      </c>
-      <c r="R18">
-        <v>2.217493227632</v>
-      </c>
-      <c r="S18">
-        <v>0.03072791376194796</v>
-      </c>
-      <c r="T18">
-        <v>0.03457074659875948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H19">
-        <v>1.450882</v>
-      </c>
-      <c r="I19">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J19">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.134884</v>
-      </c>
-      <c r="N19">
-        <v>0.404652</v>
-      </c>
-      <c r="O19">
-        <v>0.129554018139714</v>
-      </c>
-      <c r="P19">
-        <v>0.171518309960644</v>
-      </c>
-      <c r="Q19">
-        <v>0.06523358922933334</v>
-      </c>
-      <c r="R19">
-        <v>0.587102303064</v>
-      </c>
-      <c r="S19">
-        <v>0.005423670510223385</v>
-      </c>
-      <c r="T19">
-        <v>0.009152932100923605</v>
+        <v>0.009120691755510739</v>
       </c>
     </row>
   </sheetData>
